--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3962334.661175971</v>
+        <v>3955317.646284259</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>36.54905504767596</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>34.50046002839182</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>141.55483850657</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>227.167293917962</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>176.7697098251499</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>43.99240337009272</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>213.6743229269902</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0664704131268</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231285</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10.70611463921604</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.31590541686241</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>26.15603929387865</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>105.6571329437492</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.56420282848773</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>29.1893754712113</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>67.80113831221674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.15507304950286</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>207.695187002995</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.75434178245074</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>3.875543167162907</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>125.1104020794508</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>63.76326791025562</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>263.3452520788649</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>171.2255767602185</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.09091720605275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>112.2536425510786</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>490.5728759019127</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>490.5728759019127</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>490.5728759019127</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7846233036685</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y2" t="n">
-        <v>877.1727159660345</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,7 +4409,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>370.8558756644252</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1550.991915879943</v>
+        <v>1370.712364606781</v>
       </c>
       <c r="C5" t="n">
-        <v>1182.029398939532</v>
+        <v>1001.749847666369</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.029398939532</v>
+        <v>643.4841490596184</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.029398939532</v>
+        <v>643.4841490596184</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>232.4982442700108</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.591755944065</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y5" t="n">
-        <v>1937.591755944065</v>
+        <v>1757.312204670902</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>456.3840257941342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1794.6828813766</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>819.7159451700466</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>433.9276925718023</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.6828813766</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.6828813766</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y8" t="n">
-        <v>1794.6828813766</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="9">
@@ -4880,13 +4880,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4898,10 +4898,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6471865296041</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6471865296041</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6471865296041</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6471865296041</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>64.75723903169379</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>64.75723903169379</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>64.75723903169379</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6471865296041</v>
+        <v>702.5573625732399</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>568.2827263274862</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W13" t="n">
-        <v>278.8655562905255</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X13" t="n">
-        <v>278.8655562905255</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>385.5899330013836</v>
       </c>
     </row>
     <row r="14">
@@ -5254,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1464.002934367511</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1464.002934367511</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T16" t="n">
-        <v>1240.217519157017</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U16" t="n">
-        <v>1240.217519157017</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V16" t="n">
-        <v>985.5330309511296</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>696.115860914169</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>468.1263100161517</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,19 +5530,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395484</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059517</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>126.7013091079741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>126.7013091079741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>126.7013091079741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>126.7013091079741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>126.7013091079741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>126.7013091079741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>126.7013091079741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488389</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>644.108030042952</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>354.6908600059914</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>126.7013091079741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.7013091079741</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5767,22 +5767,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3446.276123502709</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>3776.138751166742</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4242.791036724022</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3888.981946387242</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3888.981946387242</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4660.934562929845</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4406.250074723958</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4337.76407642879</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4109.774525530773</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>3888.981946387242</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6004,13 +6004,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>582.2416896507652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>754.3426236399425</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267568</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W25" t="n">
-        <v>1044.311772267568</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X25" t="n">
-        <v>816.3222213695508</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>595.5296422260207</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,7 +6211,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6220,37 +6220,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6268,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,16 +6475,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>154.3878371814099</v>
       </c>
       <c r="K30" t="n">
-        <v>2786.879505108311</v>
+        <v>303.4575213834697</v>
       </c>
       <c r="L30" t="n">
-        <v>3400.7765748652</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M30" t="n">
-        <v>3751.319982033638</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N30" t="n">
-        <v>4081.182609697671</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>4360.722674916368</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>395.2468244550147</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C31" t="n">
-        <v>395.2468244550147</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1383.926477051887</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1160.141061841392</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1160.141061841392</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>905.4565736355055</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>616.0394035985448</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>616.0394035985448</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y31" t="n">
-        <v>395.2468244550147</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6700,28 +6700,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6785,19 +6785,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028587</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>972.3383848186894</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>972.3383848186894</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X34" t="n">
-        <v>744.3488339206721</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y34" t="n">
-        <v>744.3488339206721</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,16 +6916,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6934,16 +6934,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6961,25 +6961,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>646.6490309742558</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C37" t="n">
-        <v>477.7128480463489</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>477.7128480463489</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>329.7997544639558</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1164.055751909234</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>874.6385818722731</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X37" t="n">
-        <v>646.6490309742558</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y37" t="n">
-        <v>646.6490309742558</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,61 +7162,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>647.5712290164488</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>647.5712290164488</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7393,31 +7393,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1075.21084526296</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.21084526296</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1075.21084526296</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7648,7 +7648,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,7 +7745,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>874.927113122792</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>620.2426249169051</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,25 +9008,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N15" t="n">
-        <v>414.5002179180839</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9245,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M18" t="n">
-        <v>43.65987261462368</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298102</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>189.0022427662455</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>29.47535963978157</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>283.6093329825491</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>15.83804904622873</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>43.65987261462266</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>285.1031356539331</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>146.4805103800788</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.40014957530505</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>81.22986999306067</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>218.7218600243743</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>166.6769071324344</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>78.54216539558232</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>130.0776383994865</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>194.0452668164403</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>176.3280338692828</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>127.0272412443772</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>48.84084321165253</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>81.65778011267562</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>23.17774625772614</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>115.2974215763725</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.493736146042</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>174.2693557855124</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>647033.309476629</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>647033.309476629</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647033.309476629</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="G2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="H2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="I2" t="n">
+        <v>742955.2135016469</v>
+      </c>
+      <c r="J2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="O2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="P2" t="n">
         <v>742955.2135016475</v>
-      </c>
-      <c r="I2" t="n">
-        <v>742955.2135016476</v>
-      </c>
-      <c r="J2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="K2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="L2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="M2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.213501647</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="L4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="M4" t="n">
-        <v>22174.6075868707</v>
-      </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58470.14369340957</v>
+        <v>-58470.14369340925</v>
       </c>
       <c r="C6" t="n">
-        <v>531497.7355211353</v>
+        <v>531497.735521135</v>
       </c>
       <c r="D6" t="n">
         <v>531497.735521135</v>
       </c>
       <c r="E6" t="n">
-        <v>103633.2434891637</v>
+        <v>102658.6522294421</v>
       </c>
       <c r="F6" t="n">
-        <v>628793.2799660597</v>
+        <v>627818.6887063383</v>
       </c>
       <c r="G6" t="n">
-        <v>628793.2799660597</v>
+        <v>627818.6887063383</v>
       </c>
       <c r="H6" t="n">
-        <v>628793.2799660602</v>
+        <v>627818.6887063382</v>
       </c>
       <c r="I6" t="n">
-        <v>628793.2799660603</v>
+        <v>627818.6887063379</v>
       </c>
       <c r="J6" t="n">
-        <v>452370.0607734671</v>
+        <v>451395.4695137453</v>
       </c>
       <c r="K6" t="n">
-        <v>628793.2799660597</v>
+        <v>627818.6887063384</v>
       </c>
       <c r="L6" t="n">
-        <v>628793.2799660597</v>
+        <v>627818.6887063383</v>
       </c>
       <c r="M6" t="n">
-        <v>493992.2647322229</v>
+        <v>493017.6734725013</v>
       </c>
       <c r="N6" t="n">
-        <v>628793.2799660598</v>
+        <v>627818.6887063383</v>
       </c>
       <c r="O6" t="n">
-        <v>628793.2799660601</v>
+        <v>627818.6887063381</v>
       </c>
       <c r="P6" t="n">
-        <v>628793.2799660597</v>
+        <v>627818.6887063385</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>370.3269906940355</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>181.947860329266</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>25.69198259205783</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>179.7087518237494</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>237.0144601956451</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>242.5305949664983</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>12.03533246204697</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>141.2064213578807</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.47535211858298</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>124.2595071531222</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352324</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N15" t="n">
-        <v>747.6947913160968</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M18" t="n">
-        <v>354.0842496650901</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>471.3659450073538</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>362.6699330377946</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>594.0337100330154</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>57.74822800113539</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>354.084249665089</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>492.1965505854578</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3955317.646284259</v>
+        <v>3960256.909133292</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>128.7978899452909</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34.50046002839182</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.7268375758684</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>109.4422623037129</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>176.7697098251499</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>33.84234274505282</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>213.6743229269902</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231285</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686241</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385022</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>78.67701096065556</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>26.15603929387865</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>149.0799667719507</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065117</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>206.8064269214858</v>
       </c>
       <c r="U25" t="n">
-        <v>207.695187002995</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634713</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274103</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014456</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670633</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>91.94988401774764</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151892</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>49.38162151975434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,7 +3246,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>169.7438101404423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385022</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>263.3452520788649</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>169.7438101404424</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1317.927233509</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>948.9647165685888</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>590.6990179618383</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>204.9107653635941</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>197.9652646143906</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0418605529815</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0418605529815</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2662.300141494594</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2662.300141494594</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2331.237254151024</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1978.468598880909</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1978.468598880909</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4467,16 +4467,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858881</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1370.712364606781</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C5" t="n">
-        <v>1001.749847666369</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D5" t="n">
-        <v>643.4841490596184</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>643.4841490596184</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>232.4982442700108</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.451536646714</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.312204670902</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4704,28 +4704,28 @@
         <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>693.9447996154718</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7159451700466</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718023</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757142</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.54400078133</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4880,13 +4880,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4898,10 +4898,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430001</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150932</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.5573625732399</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5026,58 +5026,58 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>385.5899330013836</v>
+        <v>641.8707282937978</v>
       </c>
       <c r="C13" t="n">
-        <v>385.5899330013836</v>
+        <v>641.8707282937978</v>
       </c>
       <c r="D13" t="n">
-        <v>385.5899330013836</v>
+        <v>491.7540888814621</v>
       </c>
       <c r="E13" t="n">
-        <v>385.5899330013836</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>385.5899330013836</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383442</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>385.5899330013836</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X13" t="n">
-        <v>385.5899330013836</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y13" t="n">
-        <v>385.5899330013836</v>
+        <v>823.5191931240375</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,7 +5293,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899127</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5463,22 +5463,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1348.33044553573</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1124.545030325236</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>835.416391538794</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5506,10 +5506,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,7 +5743,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
@@ -5752,19 +5752,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,22 +5937,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5983,19 +5983,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6068,16 +6068,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6150,19 +6150,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U25" t="n">
-        <v>754.3426236399425</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>499.6581354340557</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>499.6581354340557</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6214,64 +6214,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619122</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643317</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899119</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207821</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014284</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141858</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465292</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121721</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851607</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590527</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614715</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636231</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241953</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799353</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471176</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1406.037599832902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1206.117589748454</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>982.3321745379596</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>982.3321745379596</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>727.6476863320728</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>727.6476863320728</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340555</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905254</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>154.3878371814099</v>
+        <v>143.7578250841153</v>
       </c>
       <c r="K30" t="n">
-        <v>303.4575213834697</v>
+        <v>292.8275092861746</v>
       </c>
       <c r="L30" t="n">
-        <v>550.2226492899338</v>
+        <v>539.592637192638</v>
       </c>
       <c r="M30" t="n">
-        <v>857.5427825698953</v>
+        <v>846.9127704725987</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1651.324348736749</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039407</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821616</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278839</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6578,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,46 +6922,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6979,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>265.3924131404652</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515098</v>
@@ -7189,7 +7189,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7201,25 +7201,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,28 +7435,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7605,16 +7605,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7642,13 +7642,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7839,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>73.53204524669994</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119848</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.409182577681</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544524</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928411</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>15.83804904622873</v>
+        <v>5.100663089365774</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>67.75695168591361</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>140.3375291694989</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>48.84084321165253</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518776</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>14.7411341369035</v>
       </c>
       <c r="U25" t="n">
-        <v>78.54216539558232</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>18.01446838604529</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338815</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>176.3280338692828</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.84084321165253</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>23.17774625772614</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>82.39383318338562</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.3094766292</v>
       </c>
     </row>
     <row r="11">
@@ -26316,46 +26316,46 @@
         <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="F2" t="n">
         <v>742955.2135016473</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="H2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="I2" t="n">
         <v>742955.2135016472</v>
       </c>
-      <c r="G2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>742955.2135016466</v>
+      </c>
+      <c r="K2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="O2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="P2" t="n">
         <v>742955.2135016469</v>
-      </c>
-      <c r="J2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="K2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="L2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="M2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016475</v>
       </c>
     </row>
     <row r="3">
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925914</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.056796008924721e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687067</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26435,25 +26435,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
+        <v>22174.60758687077</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22174.60758687115</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22174.60758687078</v>
+      </c>
+      <c r="L4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22174.60758687072</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871646</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-58470.14369340925</v>
       </c>
       <c r="C6" t="n">
-        <v>531497.735521135</v>
+        <v>531497.7355211353</v>
       </c>
       <c r="D6" t="n">
-        <v>531497.735521135</v>
+        <v>531497.7355211353</v>
       </c>
       <c r="E6" t="n">
-        <v>102658.6522294421</v>
+        <v>103535.7843631913</v>
       </c>
       <c r="F6" t="n">
-        <v>627818.6887063383</v>
+        <v>628695.820840088</v>
       </c>
       <c r="G6" t="n">
-        <v>627818.6887063383</v>
+        <v>628695.8208400876</v>
       </c>
       <c r="H6" t="n">
-        <v>627818.6887063382</v>
+        <v>628695.820840088</v>
       </c>
       <c r="I6" t="n">
-        <v>627818.6887063379</v>
+        <v>628695.8208400878</v>
       </c>
       <c r="J6" t="n">
-        <v>451395.4695137453</v>
+        <v>452272.6016474955</v>
       </c>
       <c r="K6" t="n">
-        <v>627818.6887063384</v>
+        <v>628695.8208400876</v>
       </c>
       <c r="L6" t="n">
-        <v>627818.6887063383</v>
+        <v>628695.8208400869</v>
       </c>
       <c r="M6" t="n">
-        <v>493017.6734725013</v>
+        <v>493894.8056062502</v>
       </c>
       <c r="N6" t="n">
-        <v>627818.6887063383</v>
+        <v>628695.8208400877</v>
       </c>
       <c r="O6" t="n">
-        <v>627818.6887063381</v>
+        <v>628695.8208400877</v>
       </c>
       <c r="P6" t="n">
-        <v>627818.6887063385</v>
+        <v>628695.8208400875</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540986</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26983,13 +26983,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-3.499260237326765e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>23.13342629957037</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>181.947860329266</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>245.24077931697</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>237.0144601956451</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>218.2953005787752</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>12.03533246204697</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858298</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352324</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.322320693172514e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32879,10 +32879,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961198</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041479</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565507</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540874</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104634</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127052</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.747805621573</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358977</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458542</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361475</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081161</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990342</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298621</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337656</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892232</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351798</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415665</v>
@@ -35509,7 +35509,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>487.1420318003114</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415073</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221104</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095146</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349768</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560235</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980119</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411073</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092049</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556532</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206024</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718745</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221192</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>57.74822800113539</v>
+        <v>47.01084204427215</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415655</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178369</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507368</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686844</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
